--- a/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_3_resultat_fts_202105.xlsx
+++ b/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_3_resultat_fts_202105.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\May 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C5B547-8266-4757-8476-34C34F7533D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB9D57B-31E0-4B98-B6DC-7928763DAE6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -308,9 +308,6 @@
     <t>d_code_id</t>
   </si>
   <si>
-    <t>3. Côte d'Ivoire - Pre TAS FL Résultat FTS</t>
-  </si>
-  <si>
     <t>d_district</t>
   </si>
   <si>
@@ -990,6 +987,9 @@
   </si>
   <si>
     <t>${d_site} != 'Autre'</t>
+  </si>
+  <si>
+    <t>(May 2021) 3. Côte d'Ivoire - Pre TAS FL Résultat FTS</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1586,7 +1586,7 @@
         <v>13</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -1629,17 +1629,17 @@
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="20"/>
@@ -1657,17 +1657,17 @@
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>89</v>
@@ -1684,22 +1684,22 @@
       <c r="N4" s="24"/>
       <c r="O4" s="25"/>
       <c r="P4" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>90</v>
@@ -1709,7 +1709,7 @@
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
       <c r="K5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="25" t="s">
@@ -1718,38 +1718,38 @@
       <c r="N5" s="24"/>
       <c r="O5" s="25"/>
       <c r="P5" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="B6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C6" s="27" t="s">
+      <c r="D6" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>299</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>300</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M6" t="s">
         <v>65</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -1757,29 +1757,29 @@
         <v>24</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C7" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="E7" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="F7" s="36" t="s">
         <v>311</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>312</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I7" s="36" t="s">
         <v>313</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="J7" s="36" t="s">
         <v>314</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>315</v>
       </c>
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
@@ -1798,11 +1798,11 @@
         <v>91</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="16"/>
@@ -1811,7 +1811,7 @@
       <c r="J8" s="31"/>
       <c r="K8" s="16"/>
       <c r="L8" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M8" s="25" t="s">
         <v>65</v>
@@ -1824,17 +1824,17 @@
     </row>
     <row r="9" spans="1:17" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>212</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>213</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="16"/>
@@ -1855,14 +1855,14 @@
         <v>27</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="25"/>
@@ -1883,16 +1883,16 @@
         <v>52</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>86</v>
@@ -1915,7 +1915,7 @@
         <v>64</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>43</v>
@@ -1930,7 +1930,7 @@
       <c r="I12" s="33"/>
       <c r="J12" s="28"/>
       <c r="K12" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="25" t="s">
@@ -1945,7 +1945,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>43</v>
@@ -1962,7 +1962,7 @@
       <c r="I13" s="33"/>
       <c r="J13" s="28"/>
       <c r="K13" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="25" t="s">
@@ -2042,13 +2042,13 @@
         <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2258,2312 +2258,2312 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" t="s">
         <v>206</v>
       </c>
-      <c r="B17" t="s">
-        <v>207</v>
-      </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C120" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D120" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C121" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D121" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C122" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D122" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C123" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D123" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B124" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C124" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D124" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B125" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C125" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D125" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C126" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D126" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C127" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D127" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C128" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D128" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C129" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D129" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C130" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D130" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C131" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D131" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C132" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D132" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B133" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C133" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D133" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B134" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C134" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D134" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B135" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C135" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D135" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B136" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C136" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D136" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B137" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C137" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D137" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B138" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C138" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D138" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B139" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D139" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B140" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C140" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D140" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B141" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C141" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D141" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B142" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C142" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D142" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B143" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C143" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D143" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B144" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C144" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D144" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B145" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C145" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D145" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B146" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C146" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D146" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B147" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C147" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D147" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B148" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C148" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D148" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B149" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C149" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D149" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B150" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C150" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D150" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B151" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C151" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D151" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B152" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C152" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D152" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B154">
         <v>101</v>
@@ -4575,12 +4575,12 @@
         <v>101</v>
       </c>
       <c r="G154" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B155">
         <v>102</v>
@@ -4592,12 +4592,12 @@
         <v>102</v>
       </c>
       <c r="G155" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B156">
         <v>103</v>
@@ -4609,12 +4609,12 @@
         <v>103</v>
       </c>
       <c r="G156" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B157">
         <v>104</v>
@@ -4626,12 +4626,12 @@
         <v>104</v>
       </c>
       <c r="G157" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B158">
         <v>105</v>
@@ -4643,12 +4643,12 @@
         <v>105</v>
       </c>
       <c r="G158" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B159">
         <v>106</v>
@@ -4660,12 +4660,12 @@
         <v>106</v>
       </c>
       <c r="G159" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B160">
         <v>107</v>
@@ -4677,12 +4677,12 @@
         <v>107</v>
       </c>
       <c r="G160" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B161">
         <v>108</v>
@@ -4694,12 +4694,12 @@
         <v>108</v>
       </c>
       <c r="G161" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B162">
         <v>109</v>
@@ -4711,12 +4711,12 @@
         <v>109</v>
       </c>
       <c r="G162" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B163">
         <v>110</v>
@@ -4728,12 +4728,12 @@
         <v>110</v>
       </c>
       <c r="G163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B164">
         <v>111</v>
@@ -4745,12 +4745,12 @@
         <v>111</v>
       </c>
       <c r="G164" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165">
         <v>112</v>
@@ -4762,12 +4762,12 @@
         <v>112</v>
       </c>
       <c r="G165" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B166">
         <v>113</v>
@@ -4779,12 +4779,12 @@
         <v>113</v>
       </c>
       <c r="G166" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B167">
         <v>114</v>
@@ -4796,12 +4796,12 @@
         <v>114</v>
       </c>
       <c r="G167" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B168">
         <v>115</v>
@@ -4813,12 +4813,12 @@
         <v>115</v>
       </c>
       <c r="G168" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B169">
         <v>116</v>
@@ -4830,12 +4830,12 @@
         <v>116</v>
       </c>
       <c r="G169" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B170">
         <v>117</v>
@@ -4847,12 +4847,12 @@
         <v>117</v>
       </c>
       <c r="G170" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B171">
         <v>118</v>
@@ -4864,12 +4864,12 @@
         <v>118</v>
       </c>
       <c r="G171" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B172">
         <v>119</v>
@@ -4881,12 +4881,12 @@
         <v>119</v>
       </c>
       <c r="G172" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B173">
         <v>120</v>
@@ -4898,12 +4898,12 @@
         <v>120</v>
       </c>
       <c r="G173" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B174">
         <v>121</v>
@@ -4915,12 +4915,12 @@
         <v>121</v>
       </c>
       <c r="G174" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B175">
         <v>122</v>
@@ -4932,12 +4932,12 @@
         <v>122</v>
       </c>
       <c r="G175" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B176">
         <v>123</v>
@@ -4949,12 +4949,12 @@
         <v>123</v>
       </c>
       <c r="G176" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B177">
         <v>124</v>
@@ -4966,12 +4966,12 @@
         <v>124</v>
       </c>
       <c r="G177" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B178">
         <v>125</v>
@@ -4983,12 +4983,12 @@
         <v>125</v>
       </c>
       <c r="G178" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B179">
         <v>126</v>
@@ -5000,12 +5000,12 @@
         <v>126</v>
       </c>
       <c r="G179" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B180">
         <v>127</v>
@@ -5017,12 +5017,12 @@
         <v>127</v>
       </c>
       <c r="G180" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B181">
         <v>128</v>
@@ -5034,12 +5034,12 @@
         <v>128</v>
       </c>
       <c r="G181" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B182">
         <v>129</v>
@@ -5051,12 +5051,12 @@
         <v>129</v>
       </c>
       <c r="G182" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B183">
         <v>130</v>
@@ -5068,12 +5068,12 @@
         <v>130</v>
       </c>
       <c r="G183" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B184">
         <v>131</v>
@@ -5085,12 +5085,12 @@
         <v>131</v>
       </c>
       <c r="G184" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B185">
         <v>132</v>
@@ -5102,12 +5102,12 @@
         <v>132</v>
       </c>
       <c r="G185" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B186">
         <v>133</v>
@@ -5119,12 +5119,12 @@
         <v>133</v>
       </c>
       <c r="G186" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B187">
         <v>134</v>
@@ -5136,12 +5136,12 @@
         <v>134</v>
       </c>
       <c r="G187" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B188">
         <v>135</v>
@@ -5153,12 +5153,12 @@
         <v>135</v>
       </c>
       <c r="G188" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B189">
         <v>136</v>
@@ -5170,12 +5170,12 @@
         <v>136</v>
       </c>
       <c r="G189" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B190">
         <v>137</v>
@@ -5187,12 +5187,12 @@
         <v>137</v>
       </c>
       <c r="G190" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B191">
         <v>138</v>
@@ -5204,12 +5204,12 @@
         <v>138</v>
       </c>
       <c r="G191" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B192">
         <v>139</v>
@@ -5221,12 +5221,12 @@
         <v>139</v>
       </c>
       <c r="G192" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B193">
         <v>140</v>
@@ -5238,12 +5238,12 @@
         <v>140</v>
       </c>
       <c r="G193" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B194">
         <v>141</v>
@@ -5255,12 +5255,12 @@
         <v>141</v>
       </c>
       <c r="G194" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B195">
         <v>142</v>
@@ -5272,12 +5272,12 @@
         <v>142</v>
       </c>
       <c r="G195" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B196">
         <v>143</v>
@@ -5289,12 +5289,12 @@
         <v>143</v>
       </c>
       <c r="G196" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B197">
         <v>144</v>
@@ -5306,12 +5306,12 @@
         <v>144</v>
       </c>
       <c r="G197" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B198">
         <v>145</v>
@@ -5323,12 +5323,12 @@
         <v>145</v>
       </c>
       <c r="G198" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B199">
         <v>146</v>
@@ -5340,12 +5340,12 @@
         <v>146</v>
       </c>
       <c r="G199" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B200">
         <v>147</v>
@@ -5357,12 +5357,12 @@
         <v>147</v>
       </c>
       <c r="G200" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B201">
         <v>148</v>
@@ -5374,12 +5374,12 @@
         <v>148</v>
       </c>
       <c r="G201" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B202">
         <v>149</v>
@@ -5391,12 +5391,12 @@
         <v>149</v>
       </c>
       <c r="G202" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B203">
         <v>150</v>
@@ -5408,12 +5408,12 @@
         <v>150</v>
       </c>
       <c r="G203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B204">
         <v>151</v>
@@ -5425,12 +5425,12 @@
         <v>151</v>
       </c>
       <c r="G204" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B205">
         <v>152</v>
@@ -5442,12 +5442,12 @@
         <v>152</v>
       </c>
       <c r="G205" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B206">
         <v>153</v>
@@ -5459,12 +5459,12 @@
         <v>153</v>
       </c>
       <c r="G206" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B207">
         <v>154</v>
@@ -5476,12 +5476,12 @@
         <v>154</v>
       </c>
       <c r="G207" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B208">
         <v>155</v>
@@ -5493,12 +5493,12 @@
         <v>155</v>
       </c>
       <c r="G208" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B209">
         <v>156</v>
@@ -5510,12 +5510,12 @@
         <v>156</v>
       </c>
       <c r="G209" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B210">
         <v>157</v>
@@ -5527,12 +5527,12 @@
         <v>157</v>
       </c>
       <c r="G210" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B211">
         <v>158</v>
@@ -5544,12 +5544,12 @@
         <v>158</v>
       </c>
       <c r="G211" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B212">
         <v>159</v>
@@ -5561,12 +5561,12 @@
         <v>159</v>
       </c>
       <c r="G212" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B213">
         <v>160</v>
@@ -5578,12 +5578,12 @@
         <v>160</v>
       </c>
       <c r="G213" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B214">
         <v>161</v>
@@ -5595,12 +5595,12 @@
         <v>161</v>
       </c>
       <c r="G214" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B215">
         <v>162</v>
@@ -5612,12 +5612,12 @@
         <v>162</v>
       </c>
       <c r="G215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B216">
         <v>163</v>
@@ -5629,12 +5629,12 @@
         <v>163</v>
       </c>
       <c r="G216" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B217">
         <v>164</v>
@@ -5646,12 +5646,12 @@
         <v>164</v>
       </c>
       <c r="G217" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B218">
         <v>165</v>
@@ -5663,12 +5663,12 @@
         <v>165</v>
       </c>
       <c r="G218" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B219">
         <v>166</v>
@@ -5680,1195 +5680,1195 @@
         <v>166</v>
       </c>
       <c r="G219" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B221" s="1">
         <v>101</v>
       </c>
       <c r="C221" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D221" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E221" s="1"/>
       <c r="F221" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B222" s="1">
         <v>102</v>
       </c>
       <c r="C222" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D222" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E222" s="1"/>
       <c r="F222" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B223" s="1">
         <v>103</v>
       </c>
       <c r="C223" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D223" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E223" s="1"/>
       <c r="F223" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B224" s="1">
         <v>104</v>
       </c>
       <c r="C224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E224" s="1"/>
       <c r="F224" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B225" s="1">
         <v>105</v>
       </c>
       <c r="C225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E225" s="1"/>
       <c r="F225" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B226" s="1">
         <v>106</v>
       </c>
       <c r="C226" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D226" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E226" s="1"/>
       <c r="F226" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B227" s="1">
         <v>107</v>
       </c>
       <c r="C227" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D227" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E227" s="1"/>
       <c r="F227" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="1">
         <v>108</v>
       </c>
       <c r="C228" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D228" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E228" s="1"/>
       <c r="F228" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B229" s="1">
         <v>109</v>
       </c>
       <c r="C229" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D229" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E229" s="1"/>
       <c r="F229" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B230" s="1">
         <v>110</v>
       </c>
       <c r="C230" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D230" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E230" s="1"/>
       <c r="F230" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B231" s="1">
         <v>111</v>
       </c>
       <c r="C231" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D231" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E231" s="1"/>
       <c r="F231" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B232" s="1">
         <v>112</v>
       </c>
       <c r="C232" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D232" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E232" s="1"/>
       <c r="F232" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B233" s="1">
         <v>113</v>
       </c>
       <c r="C233" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D233" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E233" s="1"/>
       <c r="F233" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B234" s="1">
         <v>114</v>
       </c>
       <c r="C234" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D234" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E234" s="1"/>
       <c r="F234" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B235" s="1">
         <v>115</v>
       </c>
       <c r="C235" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D235" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E235" s="1"/>
       <c r="F235" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B236" s="1">
         <v>116</v>
       </c>
       <c r="C236" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D236" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E236" s="1"/>
       <c r="F236" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B237" s="1">
         <v>117</v>
       </c>
       <c r="C237" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D237" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E237" s="1"/>
       <c r="F237" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B238" s="1">
         <v>118</v>
       </c>
       <c r="C238" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D238" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E238" s="1"/>
       <c r="F238" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B239" s="1">
         <v>119</v>
       </c>
       <c r="C239" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D239" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E239" s="1"/>
       <c r="F239" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B240" s="1">
         <v>120</v>
       </c>
       <c r="C240" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D240" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E240" s="1"/>
       <c r="F240" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B241" s="1">
         <v>121</v>
       </c>
       <c r="C241" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D241" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E241" s="1"/>
       <c r="F241" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B242" s="1">
         <v>122</v>
       </c>
       <c r="C242" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D242" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E242" s="1"/>
       <c r="F242" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B243" s="1">
         <v>123</v>
       </c>
       <c r="C243" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D243" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E243" s="1"/>
       <c r="F243" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B244" s="1">
         <v>124</v>
       </c>
       <c r="C244" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D244" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E244" s="1"/>
       <c r="F244" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B245" s="1">
         <v>125</v>
       </c>
       <c r="C245" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D245" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E245" s="1"/>
       <c r="F245" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B246" s="1">
         <v>126</v>
       </c>
       <c r="C246" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D246" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E246" s="1"/>
       <c r="F246" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B247" s="1">
         <v>127</v>
       </c>
       <c r="C247" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D247" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E247" s="1"/>
       <c r="F247" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B248" s="1">
         <v>128</v>
       </c>
       <c r="C248" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D248" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E248" s="1"/>
       <c r="F248" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B249" s="1">
         <v>129</v>
       </c>
       <c r="C249" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D249" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E249" s="1"/>
       <c r="F249" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B250" s="1">
         <v>130</v>
       </c>
       <c r="C250" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D250" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E250" s="1"/>
       <c r="F250" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B251" s="1">
         <v>131</v>
       </c>
       <c r="C251" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D251" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E251" s="1"/>
       <c r="F251" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B252" s="1">
         <v>132</v>
       </c>
       <c r="C252" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D252" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E252" s="1"/>
       <c r="F252" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B253" s="1">
         <v>133</v>
       </c>
       <c r="C253" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D253" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E253" s="1"/>
       <c r="F253" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B254" s="1">
         <v>134</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E254" s="1"/>
       <c r="F254" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B255" s="1">
         <v>135</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E255" s="1"/>
       <c r="F255" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B256" s="1">
         <v>136</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E256" s="1"/>
       <c r="F256" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B257" s="1">
         <v>137</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E257" s="1"/>
       <c r="F257" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B258" s="1">
         <v>138</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E258" s="1"/>
       <c r="F258" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B259" s="1">
         <v>139</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E259" s="1"/>
       <c r="F259" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B260" s="1">
         <v>140</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E260" s="1"/>
       <c r="F260" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B261" s="1">
         <v>141</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E261" s="1"/>
       <c r="F261" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B262" s="1">
         <v>142</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E262" s="1"/>
       <c r="F262" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B263" s="1">
         <v>143</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E263" s="1"/>
       <c r="F263" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B264" s="1">
         <v>144</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E264" s="1"/>
       <c r="F264" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B265" s="1">
         <v>145</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E265" s="1"/>
       <c r="F265" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B266" s="1">
         <v>146</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E266" s="1"/>
       <c r="F266" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B267" s="1">
         <v>147</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E267" s="1"/>
       <c r="F267" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B268" s="1">
         <v>148</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E268" s="1"/>
       <c r="F268" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B269" s="1">
         <v>149</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E269" s="1"/>
       <c r="F269" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B270" s="1">
         <v>150</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E270" s="1"/>
       <c r="F270" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B271" s="1">
         <v>151</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E271" s="1"/>
       <c r="F271" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B272" s="1">
         <v>152</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E272" s="1"/>
       <c r="F272" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B273" s="1">
         <v>153</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E273" s="1"/>
       <c r="F273" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B274" s="1">
         <v>154</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E274" s="1"/>
       <c r="F274" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B275" s="1">
         <v>155</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E275" s="1"/>
       <c r="F275" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B276" s="1">
         <v>156</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E276" s="1"/>
       <c r="F276" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B277" s="1">
         <v>157</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E277" s="1"/>
       <c r="F277" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B278" s="1">
         <v>158</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E278" s="1"/>
       <c r="F278" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B279" s="1">
         <v>159</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E279" s="1"/>
       <c r="F279" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B280" s="1">
         <v>160</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E280" s="1"/>
       <c r="F280" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B281" s="1">
         <v>161</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E281" s="1"/>
       <c r="F281" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B282" s="1">
         <v>162</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E282" s="1"/>
       <c r="F282" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B283" s="1">
         <v>163</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E283" s="1"/>
       <c r="F283" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B284" s="1">
         <v>164</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E284" s="1"/>
       <c r="F284" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B285" s="1">
         <v>165</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E285" s="1"/>
       <c r="F285" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B286" s="1">
         <v>166</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E286" s="1"/>
       <c r="F286" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -6883,8 +6883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6908,15 +6908,15 @@
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C2">
         <v>20210522</v>

--- a/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_3_resultat_fts_202105.xlsx
+++ b/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_3_resultat_fts_202105.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\May 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB9D57B-31E0-4B98-B6DC-7928763DAE6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F147A02F-A313-465D-975F-0AEE96727531}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="325">
   <si>
     <t>form_title</t>
   </si>
@@ -707,9 +707,6 @@
     <t>Autre</t>
   </si>
   <si>
-    <t>ci_lf_pretas_3_resultat_fts_202105_v2</t>
-  </si>
-  <si>
     <t>code_site_2</t>
   </si>
   <si>
@@ -989,7 +986,25 @@
     <t>${d_site} != 'Autre'</t>
   </si>
   <si>
-    <t>(May 2021) 3. Côte d'Ivoire - Pre TAS FL Résultat FTS</t>
+    <t>image</t>
+  </si>
+  <si>
+    <t>d_image</t>
+  </si>
+  <si>
+    <t>Prenez l'image du test positif ou invalid</t>
+  </si>
+  <si>
+    <t>Take the picture of the positive or invalid test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${d_result} = 'Invalide'  or ${d_result} = 'Positif' </t>
+  </si>
+  <si>
+    <t>(May 2021) 3. Côte d'Ivoire - Pre TAS FL Résultat FTS V3</t>
+  </si>
+  <si>
+    <t>ci_lf_pretas_3_resultat_fts_202105_v3</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1132,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1218,6 +1233,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1507,13 +1546,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1586,7 +1625,7 @@
         <v>13</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -1660,7 +1699,7 @@
         <v>198</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>203</v>
@@ -1692,7 +1731,7 @@
         <v>199</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>204</v>
@@ -1709,7 +1748,7 @@
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
       <c r="K5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="25" t="s">
@@ -1718,38 +1757,38 @@
       <c r="N5" s="24"/>
       <c r="O5" s="25"/>
       <c r="P5" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="B6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C6" s="27" t="s">
+      <c r="D6" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>298</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>299</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M6" t="s">
         <v>65</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -1757,29 +1796,29 @@
         <v>24</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C7" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>309</v>
-      </c>
       <c r="E7" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>310</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>311</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I7" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="J7" s="36" t="s">
         <v>313</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>314</v>
       </c>
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
@@ -1798,11 +1837,11 @@
         <v>91</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="16"/>
@@ -1811,7 +1850,7 @@
       <c r="J8" s="31"/>
       <c r="K8" s="16"/>
       <c r="L8" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M8" s="25" t="s">
         <v>65</v>
@@ -1972,33 +2011,63 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>83</v>
-      </c>
+    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2013,8 +2082,8 @@
   <dimension ref="A1:H286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A153" sqref="A153:XFD153"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2048,7 +2117,7 @@
         <v>129</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5685,16 +5754,16 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B221" s="1">
         <v>101</v>
       </c>
       <c r="C221" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D221" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E221" s="1"/>
       <c r="F221" t="s">
@@ -5703,16 +5772,16 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B222" s="1">
         <v>102</v>
       </c>
       <c r="C222" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D222" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E222" s="1"/>
       <c r="F222" t="s">
@@ -5721,16 +5790,16 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B223" s="1">
         <v>103</v>
       </c>
       <c r="C223" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D223" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E223" s="1"/>
       <c r="F223" t="s">
@@ -5739,16 +5808,16 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B224" s="1">
         <v>104</v>
       </c>
       <c r="C224" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D224" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E224" s="1"/>
       <c r="F224" t="s">
@@ -5757,16 +5826,16 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B225" s="1">
         <v>105</v>
       </c>
       <c r="C225" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D225" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E225" s="1"/>
       <c r="F225" t="s">
@@ -5775,16 +5844,16 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B226" s="1">
         <v>106</v>
       </c>
       <c r="C226" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D226" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E226" s="1"/>
       <c r="F226" t="s">
@@ -5793,16 +5862,16 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" s="1">
         <v>107</v>
       </c>
       <c r="C227" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D227" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E227" s="1"/>
       <c r="F227" t="s">
@@ -5811,16 +5880,16 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B228" s="1">
         <v>108</v>
       </c>
       <c r="C228" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D228" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E228" s="1"/>
       <c r="F228" t="s">
@@ -5829,16 +5898,16 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B229" s="1">
         <v>109</v>
       </c>
       <c r="C229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E229" s="1"/>
       <c r="F229" t="s">
@@ -5847,16 +5916,16 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B230" s="1">
         <v>110</v>
       </c>
       <c r="C230" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D230" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E230" s="1"/>
       <c r="F230" t="s">
@@ -5865,16 +5934,16 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B231" s="1">
         <v>111</v>
       </c>
       <c r="C231" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D231" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E231" s="1"/>
       <c r="F231" t="s">
@@ -5883,16 +5952,16 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B232" s="1">
         <v>112</v>
       </c>
       <c r="C232" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D232" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E232" s="1"/>
       <c r="F232" t="s">
@@ -5901,16 +5970,16 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B233" s="1">
         <v>113</v>
       </c>
       <c r="C233" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D233" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E233" s="1"/>
       <c r="F233" t="s">
@@ -5919,16 +5988,16 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B234" s="1">
         <v>114</v>
       </c>
       <c r="C234" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D234" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E234" s="1"/>
       <c r="F234" t="s">
@@ -5937,16 +6006,16 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B235" s="1">
         <v>115</v>
       </c>
       <c r="C235" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D235" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E235" s="1"/>
       <c r="F235" t="s">
@@ -5955,16 +6024,16 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B236" s="1">
         <v>116</v>
       </c>
       <c r="C236" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D236" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E236" s="1"/>
       <c r="F236" t="s">
@@ -5973,16 +6042,16 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B237" s="1">
         <v>117</v>
       </c>
       <c r="C237" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D237" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E237" s="1"/>
       <c r="F237" t="s">
@@ -5991,16 +6060,16 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B238" s="1">
         <v>118</v>
       </c>
       <c r="C238" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D238" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E238" s="1"/>
       <c r="F238" t="s">
@@ -6009,16 +6078,16 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B239" s="1">
         <v>119</v>
       </c>
       <c r="C239" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D239" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E239" s="1"/>
       <c r="F239" t="s">
@@ -6027,16 +6096,16 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B240" s="1">
         <v>120</v>
       </c>
       <c r="C240" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D240" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E240" s="1"/>
       <c r="F240" t="s">
@@ -6045,16 +6114,16 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B241" s="1">
         <v>121</v>
       </c>
       <c r="C241" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D241" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E241" s="1"/>
       <c r="F241" t="s">
@@ -6063,16 +6132,16 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B242" s="1">
         <v>122</v>
       </c>
       <c r="C242" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D242" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E242" s="1"/>
       <c r="F242" t="s">
@@ -6081,16 +6150,16 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B243" s="1">
         <v>123</v>
       </c>
       <c r="C243" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D243" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E243" s="1"/>
       <c r="F243" t="s">
@@ -6099,16 +6168,16 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B244" s="1">
         <v>124</v>
       </c>
       <c r="C244" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D244" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E244" s="1"/>
       <c r="F244" t="s">
@@ -6117,16 +6186,16 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B245" s="1">
         <v>125</v>
       </c>
       <c r="C245" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D245" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E245" s="1"/>
       <c r="F245" t="s">
@@ -6135,16 +6204,16 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B246" s="1">
         <v>126</v>
       </c>
       <c r="C246" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D246" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E246" s="1"/>
       <c r="F246" t="s">
@@ -6153,16 +6222,16 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B247" s="1">
         <v>127</v>
       </c>
       <c r="C247" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D247" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E247" s="1"/>
       <c r="F247" t="s">
@@ -6171,16 +6240,16 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B248" s="1">
         <v>128</v>
       </c>
       <c r="C248" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D248" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E248" s="1"/>
       <c r="F248" t="s">
@@ -6189,16 +6258,16 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B249" s="1">
         <v>129</v>
       </c>
       <c r="C249" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D249" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E249" s="1"/>
       <c r="F249" t="s">
@@ -6207,16 +6276,16 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B250" s="1">
         <v>130</v>
       </c>
       <c r="C250" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D250" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E250" s="1"/>
       <c r="F250" t="s">
@@ -6225,16 +6294,16 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B251" s="1">
         <v>131</v>
       </c>
       <c r="C251" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D251" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E251" s="1"/>
       <c r="F251" t="s">
@@ -6243,16 +6312,16 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B252" s="1">
         <v>132</v>
       </c>
       <c r="C252" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D252" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E252" s="1"/>
       <c r="F252" t="s">
@@ -6261,16 +6330,16 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B253" s="1">
         <v>133</v>
       </c>
       <c r="C253" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D253" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E253" s="1"/>
       <c r="F253" t="s">
@@ -6279,16 +6348,16 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B254" s="1">
         <v>134</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E254" s="1"/>
       <c r="F254" t="s">
@@ -6297,16 +6366,16 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B255" s="1">
         <v>135</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E255" s="1"/>
       <c r="F255" t="s">
@@ -6315,16 +6384,16 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B256" s="1">
         <v>136</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E256" s="1"/>
       <c r="F256" t="s">
@@ -6333,16 +6402,16 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B257" s="1">
         <v>137</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E257" s="1"/>
       <c r="F257" t="s">
@@ -6351,16 +6420,16 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B258" s="1">
         <v>138</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E258" s="1"/>
       <c r="F258" t="s">
@@ -6369,16 +6438,16 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B259" s="1">
         <v>139</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E259" s="1"/>
       <c r="F259" t="s">
@@ -6387,16 +6456,16 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B260" s="1">
         <v>140</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E260" s="1"/>
       <c r="F260" t="s">
@@ -6405,16 +6474,16 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B261" s="1">
         <v>141</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E261" s="1"/>
       <c r="F261" t="s">
@@ -6423,16 +6492,16 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B262" s="1">
         <v>142</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E262" s="1"/>
       <c r="F262" t="s">
@@ -6441,16 +6510,16 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B263" s="1">
         <v>143</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E263" s="1"/>
       <c r="F263" t="s">
@@ -6459,16 +6528,16 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B264" s="1">
         <v>144</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E264" s="1"/>
       <c r="F264" t="s">
@@ -6477,16 +6546,16 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B265" s="1">
         <v>145</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E265" s="1"/>
       <c r="F265" t="s">
@@ -6495,16 +6564,16 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B266" s="1">
         <v>146</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E266" s="1"/>
       <c r="F266" t="s">
@@ -6513,16 +6582,16 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B267" s="1">
         <v>147</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E267" s="1"/>
       <c r="F267" t="s">
@@ -6531,16 +6600,16 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B268" s="1">
         <v>148</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E268" s="1"/>
       <c r="F268" t="s">
@@ -6549,16 +6618,16 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B269" s="1">
         <v>149</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E269" s="1"/>
       <c r="F269" t="s">
@@ -6567,16 +6636,16 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B270" s="1">
         <v>150</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E270" s="1"/>
       <c r="F270" t="s">
@@ -6585,16 +6654,16 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B271" s="1">
         <v>151</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E271" s="1"/>
       <c r="F271" t="s">
@@ -6603,16 +6672,16 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B272" s="1">
         <v>152</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E272" s="1"/>
       <c r="F272" t="s">
@@ -6621,16 +6690,16 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B273" s="1">
         <v>153</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E273" s="1"/>
       <c r="F273" t="s">
@@ -6639,16 +6708,16 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B274" s="1">
         <v>154</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E274" s="1"/>
       <c r="F274" t="s">
@@ -6657,16 +6726,16 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B275" s="1">
         <v>155</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E275" s="1"/>
       <c r="F275" t="s">
@@ -6675,16 +6744,16 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B276" s="1">
         <v>156</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E276" s="1"/>
       <c r="F276" t="s">
@@ -6693,16 +6762,16 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B277" s="1">
         <v>157</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E277" s="1"/>
       <c r="F277" t="s">
@@ -6711,16 +6780,16 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B278" s="1">
         <v>158</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E278" s="1"/>
       <c r="F278" t="s">
@@ -6729,16 +6798,16 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B279" s="1">
         <v>159</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E279" s="1"/>
       <c r="F279" t="s">
@@ -6747,16 +6816,16 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B280" s="1">
         <v>160</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E280" s="1"/>
       <c r="F280" t="s">
@@ -6765,16 +6834,16 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B281" s="1">
         <v>161</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E281" s="1"/>
       <c r="F281" t="s">
@@ -6783,16 +6852,16 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B282" s="1">
         <v>162</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E282" s="1"/>
       <c r="F282" t="s">
@@ -6801,16 +6870,16 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B283" s="1">
         <v>163</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E283" s="1"/>
       <c r="F283" t="s">
@@ -6819,16 +6888,16 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B284" s="1">
         <v>164</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E284" s="1"/>
       <c r="F284" t="s">
@@ -6837,16 +6906,16 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B285" s="1">
         <v>165</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E285" s="1"/>
       <c r="F285" t="s">
@@ -6855,16 +6924,16 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B286" s="1">
         <v>166</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E286" s="1"/>
       <c r="F286" t="s">
@@ -6884,7 +6953,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6908,15 +6977,15 @@
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>324</v>
       </c>
       <c r="C2">
         <v>20210522</v>

--- a/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_3_resultat_fts_202105.xlsx
+++ b/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_3_resultat_fts_202105.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\May 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F147A02F-A313-465D-975F-0AEE96727531}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68E9159-9FEE-4724-9580-90C614B14929}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="331">
   <si>
     <t>form_title</t>
   </si>
@@ -956,24 +956,9 @@
     <t>Entrer le numéro d'ordre</t>
   </si>
   <si>
-    <t>Must be between 1 and 300</t>
-  </si>
-  <si>
     <t>Enter the order number</t>
   </si>
   <si>
-    <t xml:space="preserve">Doit être compris entre 1 et 300 </t>
-  </si>
-  <si>
-    <t>. &gt; 0 and . &lt;= 300</t>
-  </si>
-  <si>
-    <t>The value must be between 1 and 300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La valeur doit être compris entre 1 et 300 </t>
-  </si>
-  <si>
     <t>d_num</t>
   </si>
   <si>
@@ -1001,10 +986,43 @@
     <t xml:space="preserve">${d_result} = 'Invalide'  or ${d_result} = 'Positif' </t>
   </si>
   <si>
-    <t>(May 2021) 3. Côte d'Ivoire - Pre TAS FL Résultat FTS V3</t>
-  </si>
-  <si>
-    <t>ci_lf_pretas_3_resultat_fts_202105_v3</t>
+    <t>Must be between 1 and 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doit être compris entre 1 et 500 </t>
+  </si>
+  <si>
+    <t>. &gt; 0 and . &lt;= 500</t>
+  </si>
+  <si>
+    <t>The value must be between 1 and 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La valeur doit être compris entre 1 et 500 </t>
+  </si>
+  <si>
+    <t>ci_lf_pretas_3_resultat_fts_202105_v4</t>
+  </si>
+  <si>
+    <t>(May 2021) 3. Côte d'Ivoire - Pre TAS FL Résultat FTS V4</t>
+  </si>
+  <si>
+    <t>d_num2</t>
+  </si>
+  <si>
+    <t>Repeat order number</t>
+  </si>
+  <si>
+    <t>Répéter le numéro d'ordre</t>
+  </si>
+  <si>
+    <t>Le numéro d'ordre doit être le même</t>
+  </si>
+  <si>
+    <t>The order number must be the same</t>
+  </si>
+  <si>
+    <t>. = ${d_num}</t>
   </si>
 </sst>
 </file>
@@ -1546,13 +1564,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1625,7 +1643,7 @@
         <v>13</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -1748,7 +1766,7 @@
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
       <c r="K5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="25" t="s">
@@ -1796,29 +1814,29 @@
         <v>24</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="E7" s="36" t="s">
         <v>307</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="1" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
@@ -1831,146 +1849,154 @@
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+    </row>
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B9" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C9" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="19" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="Q8" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="32"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="30"/>
       <c r="J9" s="31"/>
       <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="L9" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="M9" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="25"/>
-    </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>220</v>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="Q9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="D10" s="30"/>
-      <c r="E10" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="24"/>
+      <c r="E10" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="15"/>
-    </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="25"/>
+    </row>
+    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>42</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="D11" s="30"/>
       <c r="E11" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="32"/>
+        <v>221</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="16"/>
       <c r="M11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="30"/>
+        <v>219</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="E12" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="28"/>
+        <v>218</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>86</v>
+      </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="33"/>
       <c r="J12" s="28"/>
-      <c r="K12" s="32" t="s">
-        <v>222</v>
-      </c>
+      <c r="K12" s="32"/>
       <c r="L12" s="16"/>
       <c r="M12" s="25" t="s">
         <v>65</v>
@@ -1981,27 +2007,25 @@
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="30"/>
       <c r="E13" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>72</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F13" s="28"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="33"/>
       <c r="J13" s="28"/>
       <c r="K13" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="25" t="s">
@@ -2012,62 +2036,94 @@
       <c r="P13" s="15"/>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40" t="s">
-        <v>320</v>
-      </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="41"/>
+      <c r="A14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>83</v>
-      </c>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+    </row>
+    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6952,8 +7008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6982,10 +7038,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" t="s">
         <v>323</v>
-      </c>
-      <c r="B2" t="s">
-        <v>324</v>
       </c>
       <c r="C2">
         <v>20210522</v>

--- a/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_3_resultat_fts_202105.xlsx
+++ b/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_3_resultat_fts_202105.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\May 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68E9159-9FEE-4724-9580-90C614B14929}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A599D7E-5E83-4D72-862F-C28E633DD27D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="346">
   <si>
     <t>form_title</t>
   </si>
@@ -953,9 +953,6 @@
     <t>site_list=${d_site}</t>
   </si>
   <si>
-    <t>Entrer le numéro d'ordre</t>
-  </si>
-  <si>
     <t>Enter the order number</t>
   </si>
   <si>
@@ -1001,12 +998,6 @@
     <t xml:space="preserve">La valeur doit être compris entre 1 et 500 </t>
   </si>
   <si>
-    <t>ci_lf_pretas_3_resultat_fts_202105_v4</t>
-  </si>
-  <si>
-    <t>(May 2021) 3. Côte d'Ivoire - Pre TAS FL Résultat FTS V4</t>
-  </si>
-  <si>
     <t>d_num2</t>
   </si>
   <si>
@@ -1023,13 +1014,67 @@
   </si>
   <si>
     <t>. = ${d_num}</t>
+  </si>
+  <si>
+    <t>Enter age in years</t>
+  </si>
+  <si>
+    <t>Entrer l'âge en années</t>
+  </si>
+  <si>
+    <t>. &gt;= 5 and . &lt;= 120</t>
+  </si>
+  <si>
+    <t>The age must be between 5 and 120 years</t>
+  </si>
+  <si>
+    <t>L'age doit être compris entre 5 et 120 ans</t>
+  </si>
+  <si>
+    <t>d_age_yrs</t>
+  </si>
+  <si>
+    <t>Numéro d'ordre</t>
+  </si>
+  <si>
+    <t>select_one sex_list</t>
+  </si>
+  <si>
+    <t>Sex of respondent</t>
+  </si>
+  <si>
+    <t>Sexe du répondant</t>
+  </si>
+  <si>
+    <t>d_sex</t>
+  </si>
+  <si>
+    <t>sex_list</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Masculin</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Féminin</t>
+  </si>
+  <si>
+    <t>(May 2021) 3. Côte d'Ivoire - Pre TAS FL Résultat FTS V4.2</t>
+  </si>
+  <si>
+    <t>ci_lf_pretas_3_resultat_fts_202105_v4_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1094,6 +1139,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1150,7 +1202,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1275,6 +1327,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1564,13 +1619,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1643,7 +1698,7 @@
         <v>13</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -1766,7 +1821,7 @@
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
       <c r="K5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="25" t="s">
@@ -1814,29 +1869,29 @@
         <v>24</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D7" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>318</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>319</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I7" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="J7" s="36" t="s">
         <v>321</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>322</v>
       </c>
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
@@ -1852,29 +1907,29 @@
         <v>24</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D8" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="36" t="s">
         <v>318</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>319</v>
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
@@ -1885,180 +1940,179 @@
       <c r="O8" s="36"/>
       <c r="P8" s="36"/>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+    </row>
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="36"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+    </row>
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="19" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="Q9" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="25"/>
-    </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="16"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="M11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="15"/>
-    </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="32"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="Q11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="25"/>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="D13" s="30"/>
       <c r="E13" s="31" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="F13" s="28"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="32" t="s">
-        <v>222</v>
-      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="16"/>
       <c r="M13" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="30"/>
+        <v>219</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="E14" s="31" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="33"/>
       <c r="J14" s="28"/>
-      <c r="K14" s="32" t="s">
-        <v>223</v>
-      </c>
+      <c r="K14" s="32"/>
       <c r="L14" s="16"/>
       <c r="M14" s="25" t="s">
         <v>65</v>
@@ -2068,62 +2122,124 @@
       <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="C17" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="F17" s="41"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40" t="s">
-        <v>315</v>
-      </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="44" t="s">
+      <c r="L17" s="43"/>
+      <c r="M17" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2135,11 +2251,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H286"/>
+  <dimension ref="A1:H288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2214,59 +2330,59 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>37</v>
+      <c r="A5" s="34" t="s">
+        <v>339</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>38</v>
+        <v>340</v>
+      </c>
+      <c r="C5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
+      <c r="A6" s="34" t="s">
+        <v>339</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>40</v>
+        <v>342</v>
+      </c>
+      <c r="C6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D6" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2274,41 +2390,41 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2316,13 +2432,13 @@
         <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2330,13 +2446,13 @@
         <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2344,13 +2460,13 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2358,13 +2474,13 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2372,85 +2488,83 @@
         <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" t="s">
-        <v>208</v>
-      </c>
-      <c r="D17" t="s">
-        <v>206</v>
+        <v>79</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>205</v>
       </c>
-      <c r="B18" t="s">
-        <v>207</v>
-      </c>
-      <c r="C18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" t="s">
-        <v>207</v>
+      <c r="B19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>205</v>
+      </c>
+      <c r="B20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -2459,13 +2573,13 @@
         <v>95</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -2474,13 +2588,13 @@
         <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -2489,13 +2603,13 @@
         <v>95</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -2504,13 +2618,13 @@
         <v>95</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -2519,13 +2633,13 @@
         <v>95</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -2534,13 +2648,13 @@
         <v>95</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -2549,13 +2663,13 @@
         <v>95</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -2564,13 +2678,13 @@
         <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -2579,13 +2693,13 @@
         <v>95</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -2594,13 +2708,13 @@
         <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -2609,13 +2723,13 @@
         <v>95</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -2624,13 +2738,13 @@
         <v>95</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -2639,13 +2753,13 @@
         <v>95</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -2654,13 +2768,13 @@
         <v>95</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -2669,13 +2783,13 @@
         <v>95</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -2684,13 +2798,13 @@
         <v>95</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -2699,13 +2813,13 @@
         <v>95</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -2714,13 +2828,13 @@
         <v>95</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -2729,13 +2843,13 @@
         <v>95</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -2744,13 +2858,13 @@
         <v>95</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -2759,13 +2873,13 @@
         <v>95</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -2774,13 +2888,13 @@
         <v>95</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -2789,13 +2903,13 @@
         <v>95</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E45" s="1"/>
     </row>
@@ -2804,13 +2918,13 @@
         <v>95</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E46" s="1"/>
     </row>
@@ -2819,13 +2933,13 @@
         <v>95</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E47" s="1"/>
     </row>
@@ -2834,13 +2948,13 @@
         <v>95</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E48" s="1"/>
     </row>
@@ -2849,13 +2963,13 @@
         <v>95</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E49" s="1"/>
     </row>
@@ -2864,13 +2978,13 @@
         <v>95</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E50" s="1"/>
     </row>
@@ -2879,13 +2993,13 @@
         <v>95</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -2894,68 +3008,62 @@
         <v>95</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>129</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2963,17 +3071,17 @@
         <v>129</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2981,17 +3089,17 @@
         <v>129</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2999,17 +3107,17 @@
         <v>129</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3017,17 +3125,17 @@
         <v>129</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -3035,17 +3143,17 @@
         <v>129</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3053,17 +3161,17 @@
         <v>129</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3071,17 +3179,17 @@
         <v>129</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3089,17 +3197,17 @@
         <v>129</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -3107,17 +3215,17 @@
         <v>129</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -3125,17 +3233,17 @@
         <v>129</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3143,17 +3251,17 @@
         <v>129</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3161,17 +3269,17 @@
         <v>129</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3179,17 +3287,17 @@
         <v>129</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3197,17 +3305,17 @@
         <v>129</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3215,17 +3323,17 @@
         <v>129</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3233,17 +3341,17 @@
         <v>129</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3251,17 +3359,17 @@
         <v>129</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3269,17 +3377,17 @@
         <v>129</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3287,17 +3395,17 @@
         <v>129</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3305,17 +3413,17 @@
         <v>129</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3323,17 +3431,17 @@
         <v>129</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3341,17 +3449,17 @@
         <v>129</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3359,17 +3467,17 @@
         <v>129</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3377,17 +3485,17 @@
         <v>129</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3395,17 +3503,17 @@
         <v>129</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3413,17 +3521,17 @@
         <v>129</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3431,17 +3539,17 @@
         <v>129</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3449,17 +3557,17 @@
         <v>129</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3467,17 +3575,17 @@
         <v>129</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3485,17 +3593,17 @@
         <v>129</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3503,17 +3611,17 @@
         <v>129</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3521,17 +3629,17 @@
         <v>129</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3539,17 +3647,17 @@
         <v>129</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3557,17 +3665,17 @@
         <v>129</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3575,17 +3683,17 @@
         <v>129</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3593,17 +3701,17 @@
         <v>129</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3611,17 +3719,17 @@
         <v>129</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3629,17 +3737,17 @@
         <v>129</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3647,17 +3755,17 @@
         <v>129</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3665,17 +3773,17 @@
         <v>129</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3683,17 +3791,17 @@
         <v>129</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3701,17 +3809,17 @@
         <v>129</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3719,17 +3827,17 @@
         <v>129</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3737,17 +3845,17 @@
         <v>129</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3755,17 +3863,17 @@
         <v>129</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3773,17 +3881,17 @@
         <v>129</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3791,17 +3899,17 @@
         <v>129</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3809,17 +3917,17 @@
         <v>129</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3827,17 +3935,17 @@
         <v>129</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3845,17 +3953,17 @@
         <v>129</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3863,17 +3971,17 @@
         <v>129</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3881,17 +3989,17 @@
         <v>129</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3899,17 +4007,17 @@
         <v>129</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3917,17 +4025,17 @@
         <v>129</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3935,17 +4043,17 @@
         <v>129</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3953,17 +4061,17 @@
         <v>129</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3971,17 +4079,17 @@
         <v>129</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3989,17 +4097,17 @@
         <v>129</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -4007,17 +4115,17 @@
         <v>129</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -4025,17 +4133,17 @@
         <v>129</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -4043,17 +4151,17 @@
         <v>129</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4061,17 +4169,17 @@
         <v>129</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -4079,53 +4187,53 @@
         <v>129</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>129</v>
       </c>
-      <c r="B120" t="s">
-        <v>224</v>
-      </c>
-      <c r="C120" t="s">
-        <v>224</v>
-      </c>
-      <c r="D120" t="s">
-        <v>224</v>
+      <c r="B120" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>129</v>
       </c>
-      <c r="B121" t="s">
-        <v>224</v>
-      </c>
-      <c r="C121" t="s">
-        <v>224</v>
-      </c>
-      <c r="D121" t="s">
-        <v>224</v>
+      <c r="B121" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4143,7 +4251,7 @@
       </c>
       <c r="E122" s="1"/>
       <c r="F122" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4161,7 +4269,7 @@
       </c>
       <c r="E123" s="1"/>
       <c r="F123" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4179,7 +4287,7 @@
       </c>
       <c r="E124" s="1"/>
       <c r="F124" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4197,7 +4305,7 @@
       </c>
       <c r="E125" s="1"/>
       <c r="F125" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4215,7 +4323,7 @@
       </c>
       <c r="E126" s="1"/>
       <c r="F126" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4233,7 +4341,7 @@
       </c>
       <c r="E127" s="1"/>
       <c r="F127" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4251,7 +4359,7 @@
       </c>
       <c r="E128" s="1"/>
       <c r="F128" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4269,7 +4377,7 @@
       </c>
       <c r="E129" s="1"/>
       <c r="F129" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4287,7 +4395,7 @@
       </c>
       <c r="E130" s="1"/>
       <c r="F130" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4305,7 +4413,7 @@
       </c>
       <c r="E131" s="1"/>
       <c r="F131" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4323,7 +4431,7 @@
       </c>
       <c r="E132" s="1"/>
       <c r="F132" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4341,7 +4449,7 @@
       </c>
       <c r="E133" s="1"/>
       <c r="F133" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4359,7 +4467,7 @@
       </c>
       <c r="E134" s="1"/>
       <c r="F134" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4377,7 +4485,7 @@
       </c>
       <c r="E135" s="1"/>
       <c r="F135" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4395,7 +4503,7 @@
       </c>
       <c r="E136" s="1"/>
       <c r="F136" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4413,7 +4521,7 @@
       </c>
       <c r="E137" s="1"/>
       <c r="F137" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4431,7 +4539,7 @@
       </c>
       <c r="E138" s="1"/>
       <c r="F138" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4449,7 +4557,7 @@
       </c>
       <c r="E139" s="1"/>
       <c r="F139" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4467,7 +4575,7 @@
       </c>
       <c r="E140" s="1"/>
       <c r="F140" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4485,7 +4593,7 @@
       </c>
       <c r="E141" s="1"/>
       <c r="F141" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4503,7 +4611,7 @@
       </c>
       <c r="E142" s="1"/>
       <c r="F142" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4521,7 +4629,7 @@
       </c>
       <c r="E143" s="1"/>
       <c r="F143" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4539,7 +4647,7 @@
       </c>
       <c r="E144" s="1"/>
       <c r="F144" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4557,7 +4665,7 @@
       </c>
       <c r="E145" s="1"/>
       <c r="F145" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -4575,7 +4683,7 @@
       </c>
       <c r="E146" s="1"/>
       <c r="F146" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4593,7 +4701,7 @@
       </c>
       <c r="E147" s="1"/>
       <c r="F147" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4611,7 +4719,7 @@
       </c>
       <c r="E148" s="1"/>
       <c r="F148" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4629,7 +4737,7 @@
       </c>
       <c r="E149" s="1"/>
       <c r="F149" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4647,7 +4755,7 @@
       </c>
       <c r="E150" s="1"/>
       <c r="F150" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4665,7 +4773,7 @@
       </c>
       <c r="E151" s="1"/>
       <c r="F151" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4683,41 +4791,43 @@
       </c>
       <c r="E152" s="1"/>
       <c r="F152" t="s">
-        <v>99</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>129</v>
+      </c>
+      <c r="B153" t="s">
+        <v>224</v>
+      </c>
+      <c r="C153" t="s">
+        <v>224</v>
+      </c>
+      <c r="D153" t="s">
+        <v>224</v>
+      </c>
+      <c r="E153" s="1"/>
+      <c r="F153" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>163</v>
-      </c>
-      <c r="B154">
-        <v>101</v>
-      </c>
-      <c r="C154">
-        <v>101</v>
-      </c>
-      <c r="D154">
-        <v>101</v>
-      </c>
-      <c r="G154" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>163</v>
-      </c>
-      <c r="B155">
-        <v>102</v>
-      </c>
-      <c r="C155">
-        <v>102</v>
-      </c>
-      <c r="D155">
-        <v>102</v>
-      </c>
-      <c r="G155" t="s">
-        <v>148</v>
+        <v>129</v>
+      </c>
+      <c r="B154" t="s">
+        <v>224</v>
+      </c>
+      <c r="C154" t="s">
+        <v>224</v>
+      </c>
+      <c r="D154" t="s">
+        <v>224</v>
+      </c>
+      <c r="E154" s="1"/>
+      <c r="F154" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4725,16 +4835,16 @@
         <v>163</v>
       </c>
       <c r="B156">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C156">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D156">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G156" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4742,16 +4852,16 @@
         <v>163</v>
       </c>
       <c r="B157">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C157">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D157">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G157" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4759,16 +4869,16 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C158">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D158">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G158" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4776,16 +4886,16 @@
         <v>163</v>
       </c>
       <c r="B159">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C159">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D159">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G159" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -4793,16 +4903,16 @@
         <v>163</v>
       </c>
       <c r="B160">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C160">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D160">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G160" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4810,16 +4920,16 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C161">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D161">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G161" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -4827,16 +4937,16 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C162">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D162">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G162" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4844,16 +4954,16 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C163">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D163">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G163" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -4861,16 +4971,16 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C164">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D164">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G164" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -4878,16 +4988,16 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C165">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D165">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G165" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -4895,16 +5005,16 @@
         <v>163</v>
       </c>
       <c r="B166">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C166">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D166">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G166" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -4912,16 +5022,16 @@
         <v>163</v>
       </c>
       <c r="B167">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C167">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D167">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G167" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -4929,16 +5039,16 @@
         <v>163</v>
       </c>
       <c r="B168">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C168">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D168">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G168" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -4946,16 +5056,16 @@
         <v>163</v>
       </c>
       <c r="B169">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C169">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D169">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G169" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -4963,16 +5073,16 @@
         <v>163</v>
       </c>
       <c r="B170">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C170">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D170">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G170" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -4980,16 +5090,16 @@
         <v>163</v>
       </c>
       <c r="B171">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C171">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D171">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G171" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -4997,16 +5107,16 @@
         <v>163</v>
       </c>
       <c r="B172">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C172">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D172">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G172" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -5014,16 +5124,16 @@
         <v>163</v>
       </c>
       <c r="B173">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C173">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D173">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G173" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -5031,16 +5141,16 @@
         <v>163</v>
       </c>
       <c r="B174">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C174">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D174">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G174" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -5048,16 +5158,16 @@
         <v>163</v>
       </c>
       <c r="B175">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C175">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D175">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G175" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -5065,16 +5175,16 @@
         <v>163</v>
       </c>
       <c r="B176">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C176">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D176">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G176" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -5082,16 +5192,16 @@
         <v>163</v>
       </c>
       <c r="B177">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C177">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D177">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G177" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -5099,16 +5209,16 @@
         <v>163</v>
       </c>
       <c r="B178">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C178">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D178">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G178" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -5116,16 +5226,16 @@
         <v>163</v>
       </c>
       <c r="B179">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C179">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D179">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G179" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -5133,16 +5243,16 @@
         <v>163</v>
       </c>
       <c r="B180">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C180">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D180">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G180" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -5150,16 +5260,16 @@
         <v>163</v>
       </c>
       <c r="B181">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C181">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D181">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G181" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -5167,16 +5277,16 @@
         <v>163</v>
       </c>
       <c r="B182">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C182">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D182">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G182" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -5184,16 +5294,16 @@
         <v>163</v>
       </c>
       <c r="B183">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C183">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D183">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G183" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -5201,16 +5311,16 @@
         <v>163</v>
       </c>
       <c r="B184">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C184">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D184">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G184" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -5218,16 +5328,16 @@
         <v>163</v>
       </c>
       <c r="B185">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C185">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D185">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G185" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -5235,16 +5345,16 @@
         <v>163</v>
       </c>
       <c r="B186">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C186">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D186">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G186" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -5252,16 +5362,16 @@
         <v>163</v>
       </c>
       <c r="B187">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C187">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D187">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G187" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -5269,16 +5379,16 @@
         <v>163</v>
       </c>
       <c r="B188">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C188">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D188">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G188" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -5286,16 +5396,16 @@
         <v>163</v>
       </c>
       <c r="B189">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C189">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D189">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G189" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -5303,16 +5413,16 @@
         <v>163</v>
       </c>
       <c r="B190">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C190">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D190">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G190" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -5320,16 +5430,16 @@
         <v>163</v>
       </c>
       <c r="B191">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C191">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D191">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G191" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -5337,16 +5447,16 @@
         <v>163</v>
       </c>
       <c r="B192">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C192">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D192">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G192" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -5354,16 +5464,16 @@
         <v>163</v>
       </c>
       <c r="B193">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C193">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D193">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G193" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -5371,16 +5481,16 @@
         <v>163</v>
       </c>
       <c r="B194">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C194">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D194">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G194" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -5388,16 +5498,16 @@
         <v>163</v>
       </c>
       <c r="B195">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C195">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D195">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G195" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -5405,16 +5515,16 @@
         <v>163</v>
       </c>
       <c r="B196">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C196">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D196">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G196" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -5422,16 +5532,16 @@
         <v>163</v>
       </c>
       <c r="B197">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C197">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D197">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G197" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -5439,16 +5549,16 @@
         <v>163</v>
       </c>
       <c r="B198">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C198">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D198">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G198" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -5456,16 +5566,16 @@
         <v>163</v>
       </c>
       <c r="B199">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C199">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D199">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G199" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -5473,16 +5583,16 @@
         <v>163</v>
       </c>
       <c r="B200">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C200">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D200">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G200" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -5490,16 +5600,16 @@
         <v>163</v>
       </c>
       <c r="B201">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C201">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D201">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G201" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -5507,16 +5617,16 @@
         <v>163</v>
       </c>
       <c r="B202">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C202">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D202">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G202" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -5524,16 +5634,16 @@
         <v>163</v>
       </c>
       <c r="B203">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C203">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D203">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G203" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -5541,16 +5651,16 @@
         <v>163</v>
       </c>
       <c r="B204">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C204">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D204">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G204" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -5558,16 +5668,16 @@
         <v>163</v>
       </c>
       <c r="B205">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C205">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D205">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G205" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -5575,16 +5685,16 @@
         <v>163</v>
       </c>
       <c r="B206">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C206">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D206">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G206" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -5592,16 +5702,16 @@
         <v>163</v>
       </c>
       <c r="B207">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C207">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D207">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G207" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -5609,16 +5719,16 @@
         <v>163</v>
       </c>
       <c r="B208">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C208">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D208">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G208" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -5626,16 +5736,16 @@
         <v>163</v>
       </c>
       <c r="B209">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C209">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D209">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G209" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -5643,16 +5753,16 @@
         <v>163</v>
       </c>
       <c r="B210">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C210">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D210">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G210" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -5660,16 +5770,16 @@
         <v>163</v>
       </c>
       <c r="B211">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C211">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D211">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G211" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -5677,16 +5787,16 @@
         <v>163</v>
       </c>
       <c r="B212">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C212">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D212">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G212" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -5694,16 +5804,16 @@
         <v>163</v>
       </c>
       <c r="B213">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C213">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D213">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G213" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -5711,16 +5821,16 @@
         <v>163</v>
       </c>
       <c r="B214">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C214">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D214">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G214" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -5728,16 +5838,16 @@
         <v>163</v>
       </c>
       <c r="B215">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C215">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D215">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G215" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -5745,16 +5855,16 @@
         <v>163</v>
       </c>
       <c r="B216">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C216">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D216">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G216" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -5762,16 +5872,16 @@
         <v>163</v>
       </c>
       <c r="B217">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C217">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D217">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G217" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -5779,16 +5889,16 @@
         <v>163</v>
       </c>
       <c r="B218">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C218">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D218">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G218" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -5796,52 +5906,50 @@
         <v>163</v>
       </c>
       <c r="B219">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C219">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D219">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G219" t="s">
-        <v>188</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>163</v>
+      </c>
+      <c r="B220">
+        <v>165</v>
+      </c>
+      <c r="C220">
+        <v>165</v>
+      </c>
+      <c r="D220">
+        <v>165</v>
+      </c>
+      <c r="G220" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>225</v>
-      </c>
-      <c r="B221" s="1">
-        <v>101</v>
-      </c>
-      <c r="C221" t="s">
-        <v>226</v>
-      </c>
-      <c r="D221" t="s">
-        <v>226</v>
-      </c>
-      <c r="E221" s="1"/>
-      <c r="F221" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>225</v>
-      </c>
-      <c r="B222" s="1">
-        <v>102</v>
-      </c>
-      <c r="C222" t="s">
-        <v>227</v>
-      </c>
-      <c r="D222" t="s">
-        <v>227</v>
-      </c>
-      <c r="E222" s="1"/>
-      <c r="F222" t="s">
-        <v>126</v>
+        <v>163</v>
+      </c>
+      <c r="B221">
+        <v>166</v>
+      </c>
+      <c r="C221">
+        <v>166</v>
+      </c>
+      <c r="D221">
+        <v>166</v>
+      </c>
+      <c r="G221" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -5849,17 +5957,17 @@
         <v>225</v>
       </c>
       <c r="B223" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C223" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D223" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E223" s="1"/>
       <c r="F223" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -5867,17 +5975,17 @@
         <v>225</v>
       </c>
       <c r="B224" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C224" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D224" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E224" s="1"/>
       <c r="F224" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -5885,17 +5993,17 @@
         <v>225</v>
       </c>
       <c r="B225" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C225" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D225" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E225" s="1"/>
       <c r="F225" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -5903,17 +6011,17 @@
         <v>225</v>
       </c>
       <c r="B226" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C226" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D226" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E226" s="1"/>
       <c r="F226" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -5921,17 +6029,17 @@
         <v>225</v>
       </c>
       <c r="B227" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C227" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D227" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E227" s="1"/>
       <c r="F227" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -5939,17 +6047,17 @@
         <v>225</v>
       </c>
       <c r="B228" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C228" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D228" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E228" s="1"/>
       <c r="F228" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -5957,17 +6065,17 @@
         <v>225</v>
       </c>
       <c r="B229" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C229" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D229" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E229" s="1"/>
       <c r="F229" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -5975,17 +6083,17 @@
         <v>225</v>
       </c>
       <c r="B230" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C230" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D230" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E230" s="1"/>
       <c r="F230" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -5993,17 +6101,17 @@
         <v>225</v>
       </c>
       <c r="B231" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C231" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D231" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E231" s="1"/>
       <c r="F231" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -6011,17 +6119,17 @@
         <v>225</v>
       </c>
       <c r="B232" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C232" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D232" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E232" s="1"/>
       <c r="F232" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -6029,17 +6137,17 @@
         <v>225</v>
       </c>
       <c r="B233" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C233" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D233" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E233" s="1"/>
       <c r="F233" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -6047,17 +6155,17 @@
         <v>225</v>
       </c>
       <c r="B234" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C234" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D234" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E234" s="1"/>
       <c r="F234" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -6065,17 +6173,17 @@
         <v>225</v>
       </c>
       <c r="B235" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C235" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D235" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E235" s="1"/>
       <c r="F235" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -6083,17 +6191,17 @@
         <v>225</v>
       </c>
       <c r="B236" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C236" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D236" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E236" s="1"/>
       <c r="F236" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -6101,17 +6209,17 @@
         <v>225</v>
       </c>
       <c r="B237" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C237" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D237" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E237" s="1"/>
       <c r="F237" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -6119,17 +6227,17 @@
         <v>225</v>
       </c>
       <c r="B238" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C238" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D238" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E238" s="1"/>
       <c r="F238" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -6137,17 +6245,17 @@
         <v>225</v>
       </c>
       <c r="B239" s="1">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C239" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D239" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E239" s="1"/>
       <c r="F239" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -6155,17 +6263,17 @@
         <v>225</v>
       </c>
       <c r="B240" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C240" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D240" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E240" s="1"/>
       <c r="F240" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -6173,17 +6281,17 @@
         <v>225</v>
       </c>
       <c r="B241" s="1">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C241" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D241" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E241" s="1"/>
       <c r="F241" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -6191,17 +6299,17 @@
         <v>225</v>
       </c>
       <c r="B242" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C242" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D242" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E242" s="1"/>
       <c r="F242" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -6209,17 +6317,17 @@
         <v>225</v>
       </c>
       <c r="B243" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C243" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D243" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E243" s="1"/>
       <c r="F243" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -6227,17 +6335,17 @@
         <v>225</v>
       </c>
       <c r="B244" s="1">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C244" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D244" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E244" s="1"/>
       <c r="F244" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -6245,17 +6353,17 @@
         <v>225</v>
       </c>
       <c r="B245" s="1">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C245" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D245" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E245" s="1"/>
       <c r="F245" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -6263,17 +6371,17 @@
         <v>225</v>
       </c>
       <c r="B246" s="1">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C246" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D246" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E246" s="1"/>
       <c r="F246" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -6281,17 +6389,17 @@
         <v>225</v>
       </c>
       <c r="B247" s="1">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C247" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D247" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E247" s="1"/>
       <c r="F247" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -6299,17 +6407,17 @@
         <v>225</v>
       </c>
       <c r="B248" s="1">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C248" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D248" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E248" s="1"/>
       <c r="F248" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -6317,17 +6425,17 @@
         <v>225</v>
       </c>
       <c r="B249" s="1">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C249" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D249" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E249" s="1"/>
       <c r="F249" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -6335,17 +6443,17 @@
         <v>225</v>
       </c>
       <c r="B250" s="1">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C250" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D250" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E250" s="1"/>
       <c r="F250" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -6353,17 +6461,17 @@
         <v>225</v>
       </c>
       <c r="B251" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C251" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D251" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E251" s="1"/>
       <c r="F251" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -6371,17 +6479,17 @@
         <v>225</v>
       </c>
       <c r="B252" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C252" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D252" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E252" s="1"/>
       <c r="F252" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -6389,17 +6497,17 @@
         <v>225</v>
       </c>
       <c r="B253" s="1">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C253" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D253" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E253" s="1"/>
       <c r="F253" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -6407,17 +6515,17 @@
         <v>225</v>
       </c>
       <c r="B254" s="1">
-        <v>134</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>259</v>
+        <v>132</v>
+      </c>
+      <c r="C254" t="s">
+        <v>257</v>
+      </c>
+      <c r="D254" t="s">
+        <v>257</v>
       </c>
       <c r="E254" s="1"/>
       <c r="F254" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -6425,17 +6533,17 @@
         <v>225</v>
       </c>
       <c r="B255" s="1">
-        <v>135</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>260</v>
+        <v>133</v>
+      </c>
+      <c r="C255" t="s">
+        <v>258</v>
+      </c>
+      <c r="D255" t="s">
+        <v>258</v>
       </c>
       <c r="E255" s="1"/>
       <c r="F255" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -6443,17 +6551,17 @@
         <v>225</v>
       </c>
       <c r="B256" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E256" s="1"/>
       <c r="F256" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -6461,17 +6569,17 @@
         <v>225</v>
       </c>
       <c r="B257" s="1">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E257" s="1"/>
       <c r="F257" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -6479,17 +6587,17 @@
         <v>225</v>
       </c>
       <c r="B258" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E258" s="1"/>
       <c r="F258" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -6497,17 +6605,17 @@
         <v>225</v>
       </c>
       <c r="B259" s="1">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E259" s="1"/>
       <c r="F259" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -6515,17 +6623,17 @@
         <v>225</v>
       </c>
       <c r="B260" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E260" s="1"/>
       <c r="F260" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -6533,17 +6641,17 @@
         <v>225</v>
       </c>
       <c r="B261" s="1">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E261" s="1"/>
       <c r="F261" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -6551,17 +6659,17 @@
         <v>225</v>
       </c>
       <c r="B262" s="1">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E262" s="1"/>
       <c r="F262" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -6569,17 +6677,17 @@
         <v>225</v>
       </c>
       <c r="B263" s="1">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E263" s="1"/>
       <c r="F263" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -6587,17 +6695,17 @@
         <v>225</v>
       </c>
       <c r="B264" s="1">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E264" s="1"/>
       <c r="F264" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -6605,17 +6713,17 @@
         <v>225</v>
       </c>
       <c r="B265" s="1">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E265" s="1"/>
       <c r="F265" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -6623,17 +6731,17 @@
         <v>225</v>
       </c>
       <c r="B266" s="1">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E266" s="1"/>
       <c r="F266" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -6641,17 +6749,17 @@
         <v>225</v>
       </c>
       <c r="B267" s="1">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E267" s="1"/>
       <c r="F267" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -6659,17 +6767,17 @@
         <v>225</v>
       </c>
       <c r="B268" s="1">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E268" s="1"/>
       <c r="F268" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -6677,17 +6785,17 @@
         <v>225</v>
       </c>
       <c r="B269" s="1">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E269" s="1"/>
       <c r="F269" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -6695,17 +6803,17 @@
         <v>225</v>
       </c>
       <c r="B270" s="1">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E270" s="1"/>
       <c r="F270" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -6713,17 +6821,17 @@
         <v>225</v>
       </c>
       <c r="B271" s="1">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E271" s="1"/>
       <c r="F271" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -6731,17 +6839,17 @@
         <v>225</v>
       </c>
       <c r="B272" s="1">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E272" s="1"/>
       <c r="F272" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -6749,17 +6857,17 @@
         <v>225</v>
       </c>
       <c r="B273" s="1">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E273" s="1"/>
       <c r="F273" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -6767,17 +6875,17 @@
         <v>225</v>
       </c>
       <c r="B274" s="1">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E274" s="1"/>
       <c r="F274" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -6785,17 +6893,17 @@
         <v>225</v>
       </c>
       <c r="B275" s="1">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E275" s="1"/>
       <c r="F275" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -6803,17 +6911,17 @@
         <v>225</v>
       </c>
       <c r="B276" s="1">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E276" s="1"/>
       <c r="F276" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -6821,17 +6929,17 @@
         <v>225</v>
       </c>
       <c r="B277" s="1">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E277" s="1"/>
       <c r="F277" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -6839,17 +6947,17 @@
         <v>225</v>
       </c>
       <c r="B278" s="1">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E278" s="1"/>
       <c r="F278" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -6857,17 +6965,17 @@
         <v>225</v>
       </c>
       <c r="B279" s="1">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E279" s="1"/>
       <c r="F279" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -6875,17 +6983,17 @@
         <v>225</v>
       </c>
       <c r="B280" s="1">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E280" s="1"/>
       <c r="F280" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -6893,17 +7001,17 @@
         <v>225</v>
       </c>
       <c r="B281" s="1">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E281" s="1"/>
       <c r="F281" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -6911,17 +7019,17 @@
         <v>225</v>
       </c>
       <c r="B282" s="1">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E282" s="1"/>
       <c r="F282" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -6929,17 +7037,17 @@
         <v>225</v>
       </c>
       <c r="B283" s="1">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E283" s="1"/>
       <c r="F283" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -6947,17 +7055,17 @@
         <v>225</v>
       </c>
       <c r="B284" s="1">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E284" s="1"/>
       <c r="F284" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -6965,17 +7073,17 @@
         <v>225</v>
       </c>
       <c r="B285" s="1">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E285" s="1"/>
       <c r="F285" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -6983,22 +7091,58 @@
         <v>225</v>
       </c>
       <c r="B286" s="1">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E286" s="1"/>
       <c r="F286" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>225</v>
+      </c>
+      <c r="B287" s="1">
+        <v>165</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E287" s="1"/>
+      <c r="F287" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>225</v>
+      </c>
+      <c r="B288" s="1">
+        <v>166</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E288" s="1"/>
+      <c r="F288" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:C56">
-    <sortCondition ref="B9:B56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:C58">
+    <sortCondition ref="B11:B58"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7008,8 +7152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7038,10 +7182,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="C2">
         <v>20210522</v>
